--- a/tabel selisih AB.xlsx
+++ b/tabel selisih AB.xlsx
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -626,13 +626,13 @@
         </is>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="19">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B20">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="21">
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="23">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -754,13 +754,13 @@
         </is>
       </c>
       <c r="B25">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B26">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
         <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="B27">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B28">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C28">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
